--- a/backup2/doc/release.xlsx
+++ b/backup2/doc/release.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoxiaoqiang\PycharmProjects\Work\work\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucifer\PycharmProjects\Work\work\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C5B6EA-4B3A-43C0-999B-86F2F0A085E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B013EDC3-4542-469B-B59D-8A0FB0985A7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="home" sheetId="15" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="1038">
   <si>
     <t>QA</t>
   </si>
@@ -3721,18 +3721,6 @@
   </si>
   <si>
     <t>单慧颖</t>
-  </si>
-  <si>
-    <t>www.douyu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Home</t>
@@ -5168,6 +5156,9 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -5192,6 +5183,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5201,8 +5195,56 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5212,60 +5254,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5558,12 +5546,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
   </sheetData>
@@ -5651,19 +5639,19 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="158">
+      <c r="A2" s="159">
         <v>202103</v>
       </c>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="161" t="s">
         <v>765</v>
       </c>
-      <c r="C2" s="160" t="s">
+      <c r="C2" s="161" t="s">
         <v>769</v>
       </c>
-      <c r="D2" s="160" t="s">
+      <c r="D2" s="161" t="s">
         <v>782</v>
       </c>
-      <c r="E2" s="160" t="s">
+      <c r="E2" s="161" t="s">
         <v>770</v>
       </c>
       <c r="F2" s="145" t="s">
@@ -5671,29 +5659,29 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="159"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
       <c r="F3" s="146" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="158">
+      <c r="A4" s="159">
         <v>202103</v>
       </c>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="161" t="s">
         <v>766</v>
       </c>
-      <c r="C4" s="160" t="s">
+      <c r="C4" s="161" t="s">
         <v>771</v>
       </c>
-      <c r="D4" s="160" t="s">
+      <c r="D4" s="161" t="s">
         <v>772</v>
       </c>
-      <c r="E4" s="160" t="s">
+      <c r="E4" s="161" t="s">
         <v>773</v>
       </c>
       <c r="F4" s="145" t="s">
@@ -5701,29 +5689,29 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="159"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
+      <c r="A5" s="160"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
       <c r="F5" s="146" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="158">
+      <c r="A6" s="159">
         <v>202103</v>
       </c>
-      <c r="B6" s="160" t="s">
+      <c r="B6" s="161" t="s">
         <v>767</v>
       </c>
-      <c r="C6" s="160" t="s">
+      <c r="C6" s="161" t="s">
         <v>769</v>
       </c>
-      <c r="D6" s="160" t="s">
+      <c r="D6" s="161" t="s">
         <v>782</v>
       </c>
-      <c r="E6" s="160" t="s">
+      <c r="E6" s="161" t="s">
         <v>770</v>
       </c>
       <c r="F6" s="145" t="s">
@@ -5731,29 +5719,29 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="159"/>
-      <c r="B7" s="161"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
+      <c r="A7" s="160"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
       <c r="F7" s="146" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="158">
+      <c r="A8" s="159">
         <v>202103</v>
       </c>
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="161" t="s">
         <v>768</v>
       </c>
-      <c r="C8" s="160" t="s">
+      <c r="C8" s="161" t="s">
         <v>771</v>
       </c>
-      <c r="D8" s="160" t="s">
+      <c r="D8" s="161" t="s">
         <v>772</v>
       </c>
-      <c r="E8" s="160" t="s">
+      <c r="E8" s="161" t="s">
         <v>773</v>
       </c>
       <c r="F8" s="145" t="s">
@@ -5761,29 +5749,29 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="159"/>
-      <c r="B9" s="161"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
+      <c r="A9" s="160"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
       <c r="F9" s="146" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="154">
+      <c r="A10" s="155">
         <v>202104</v>
       </c>
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="157" t="s">
         <v>783</v>
       </c>
-      <c r="C10" s="156" t="s">
+      <c r="C10" s="157" t="s">
         <v>784</v>
       </c>
-      <c r="D10" s="156" t="s">
+      <c r="D10" s="157" t="s">
         <v>785</v>
       </c>
-      <c r="E10" s="156" t="s">
+      <c r="E10" s="157" t="s">
         <v>786</v>
       </c>
       <c r="F10" s="94" t="s">
@@ -5791,29 +5779,29 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="155"/>
-      <c r="B11" s="157"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="157"/>
+      <c r="A11" s="156"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="158"/>
       <c r="F11" s="74" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="154">
+      <c r="A12" s="155">
         <v>202104</v>
       </c>
-      <c r="B12" s="156" t="s">
+      <c r="B12" s="157" t="s">
         <v>789</v>
       </c>
-      <c r="C12" s="156" t="s">
+      <c r="C12" s="157" t="s">
         <v>790</v>
       </c>
-      <c r="D12" s="156" t="s">
+      <c r="D12" s="157" t="s">
         <v>791</v>
       </c>
-      <c r="E12" s="156" t="s">
+      <c r="E12" s="157" t="s">
         <v>792</v>
       </c>
       <c r="F12" s="143" t="s">
@@ -5821,29 +5809,29 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="155"/>
-      <c r="B13" s="157"/>
-      <c r="C13" s="157"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="157"/>
+      <c r="A13" s="156"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="158"/>
       <c r="F13" s="74" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="154">
+      <c r="A14" s="155">
         <v>202104</v>
       </c>
-      <c r="B14" s="156" t="s">
+      <c r="B14" s="157" t="s">
         <v>795</v>
       </c>
-      <c r="C14" s="156" t="s">
+      <c r="C14" s="157" t="s">
         <v>784</v>
       </c>
-      <c r="D14" s="156" t="s">
+      <c r="D14" s="157" t="s">
         <v>785</v>
       </c>
-      <c r="E14" s="156" t="s">
+      <c r="E14" s="157" t="s">
         <v>786</v>
       </c>
       <c r="F14" s="143" t="s">
@@ -5851,29 +5839,29 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="155"/>
-      <c r="B15" s="157"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
+      <c r="A15" s="156"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
       <c r="F15" s="144" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="154">
+      <c r="A16" s="155">
         <v>202104</v>
       </c>
-      <c r="B16" s="156" t="s">
+      <c r="B16" s="157" t="s">
         <v>798</v>
       </c>
-      <c r="C16" s="156" t="s">
+      <c r="C16" s="157" t="s">
         <v>790</v>
       </c>
-      <c r="D16" s="156" t="s">
+      <c r="D16" s="157" t="s">
         <v>791</v>
       </c>
-      <c r="E16" s="156" t="s">
+      <c r="E16" s="157" t="s">
         <v>792</v>
       </c>
       <c r="F16" s="143" t="s">
@@ -5881,29 +5869,29 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="155"/>
-      <c r="B17" s="157"/>
-      <c r="C17" s="157"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="157"/>
+      <c r="A17" s="156"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="158"/>
       <c r="F17" s="74" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="158">
+      <c r="A18" s="159">
         <v>202105</v>
       </c>
-      <c r="B18" s="160" t="s">
+      <c r="B18" s="161" t="s">
         <v>818</v>
       </c>
-      <c r="C18" s="160" t="s">
+      <c r="C18" s="161" t="s">
         <v>819</v>
       </c>
-      <c r="D18" s="160" t="s">
+      <c r="D18" s="161" t="s">
         <v>820</v>
       </c>
-      <c r="E18" s="160" t="s">
+      <c r="E18" s="161" t="s">
         <v>821</v>
       </c>
       <c r="F18" s="145" t="s">
@@ -5911,29 +5899,29 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="159"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
+      <c r="A19" s="160"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
       <c r="F19" s="146" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="158">
+      <c r="A20" s="159">
         <v>202105</v>
       </c>
-      <c r="B20" s="160" t="s">
+      <c r="B20" s="161" t="s">
         <v>824</v>
       </c>
-      <c r="C20" s="160" t="s">
+      <c r="C20" s="161" t="s">
         <v>825</v>
       </c>
-      <c r="D20" s="160" t="s">
+      <c r="D20" s="161" t="s">
         <v>826</v>
       </c>
-      <c r="E20" s="160" t="s">
+      <c r="E20" s="161" t="s">
         <v>827</v>
       </c>
       <c r="F20" s="145" t="s">
@@ -5941,29 +5929,29 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="159"/>
-      <c r="B21" s="161"/>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
+      <c r="A21" s="160"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="162"/>
+      <c r="E21" s="162"/>
       <c r="F21" s="146" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="158">
+      <c r="A22" s="159">
         <v>202105</v>
       </c>
-      <c r="B22" s="160" t="s">
+      <c r="B22" s="161" t="s">
         <v>830</v>
       </c>
-      <c r="C22" s="160" t="s">
+      <c r="C22" s="161" t="s">
         <v>819</v>
       </c>
-      <c r="D22" s="160" t="s">
+      <c r="D22" s="161" t="s">
         <v>820</v>
       </c>
-      <c r="E22" s="160" t="s">
+      <c r="E22" s="161" t="s">
         <v>821</v>
       </c>
       <c r="F22" s="145" t="s">
@@ -5971,29 +5959,29 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="159"/>
-      <c r="B23" s="161"/>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
+      <c r="A23" s="160"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
       <c r="F23" s="146" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="158">
+      <c r="A24" s="159">
         <v>202105</v>
       </c>
-      <c r="B24" s="160" t="s">
+      <c r="B24" s="161" t="s">
         <v>833</v>
       </c>
-      <c r="C24" s="160" t="s">
+      <c r="C24" s="161" t="s">
         <v>825</v>
       </c>
-      <c r="D24" s="160" t="s">
+      <c r="D24" s="161" t="s">
         <v>826</v>
       </c>
-      <c r="E24" s="160" t="s">
+      <c r="E24" s="161" t="s">
         <v>827</v>
       </c>
       <c r="F24" s="145" t="s">
@@ -6001,29 +5989,29 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="159"/>
-      <c r="B25" s="161"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
+      <c r="A25" s="160"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
       <c r="F25" s="146" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="154">
+      <c r="A26" s="155">
         <v>202106</v>
       </c>
-      <c r="B26" s="156" t="s">
+      <c r="B26" s="157" t="s">
         <v>809</v>
       </c>
-      <c r="C26" s="156" t="s">
+      <c r="C26" s="157" t="s">
         <v>815</v>
       </c>
-      <c r="D26" s="156" t="s">
+      <c r="D26" s="157" t="s">
         <v>816</v>
       </c>
-      <c r="E26" s="156" t="s">
+      <c r="E26" s="157" t="s">
         <v>817</v>
       </c>
       <c r="F26" s="94" t="s">
@@ -6031,29 +6019,29 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="155"/>
-      <c r="B27" s="157"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
+      <c r="A27" s="156"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
       <c r="F27" s="74" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="154">
+      <c r="A28" s="155">
         <v>202106</v>
       </c>
-      <c r="B28" s="156" t="s">
+      <c r="B28" s="157" t="s">
         <v>810</v>
       </c>
-      <c r="C28" s="156" t="s">
+      <c r="C28" s="157" t="s">
         <v>542</v>
       </c>
-      <c r="D28" s="156" t="s">
+      <c r="D28" s="157" t="s">
         <v>813</v>
       </c>
-      <c r="E28" s="156" t="s">
+      <c r="E28" s="157" t="s">
         <v>814</v>
       </c>
       <c r="F28" s="143" t="s">
@@ -6061,29 +6049,29 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="155"/>
-      <c r="B29" s="157"/>
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157"/>
+      <c r="A29" s="156"/>
+      <c r="B29" s="158"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="158"/>
       <c r="F29" s="74" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="154">
+      <c r="A30" s="155">
         <v>202106</v>
       </c>
-      <c r="B30" s="156" t="s">
+      <c r="B30" s="157" t="s">
         <v>811</v>
       </c>
-      <c r="C30" s="156" t="s">
+      <c r="C30" s="157" t="s">
         <v>815</v>
       </c>
-      <c r="D30" s="156" t="s">
+      <c r="D30" s="157" t="s">
         <v>816</v>
       </c>
-      <c r="E30" s="156" t="s">
+      <c r="E30" s="157" t="s">
         <v>817</v>
       </c>
       <c r="F30" s="143" t="s">
@@ -6091,29 +6079,29 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="155"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
+      <c r="A31" s="156"/>
+      <c r="B31" s="158"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="158"/>
       <c r="F31" s="144" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="154">
+      <c r="A32" s="155">
         <v>202106</v>
       </c>
-      <c r="B32" s="156" t="s">
+      <c r="B32" s="157" t="s">
         <v>812</v>
       </c>
-      <c r="C32" s="156" t="s">
+      <c r="C32" s="157" t="s">
         <v>542</v>
       </c>
-      <c r="D32" s="156" t="s">
+      <c r="D32" s="157" t="s">
         <v>813</v>
       </c>
-      <c r="E32" s="156" t="s">
+      <c r="E32" s="157" t="s">
         <v>814</v>
       </c>
       <c r="F32" s="143" t="s">
@@ -6121,97 +6109,97 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="155"/>
-      <c r="B33" s="157"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="157"/>
+      <c r="A33" s="156"/>
+      <c r="B33" s="158"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="158"/>
+      <c r="E33" s="158"/>
       <c r="F33" s="74" t="s">
         <v>808</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6223,7 +6211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC07A0B7-08D6-4D02-8D06-10831959C9CB}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -6236,55 +6224,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="186" t="s">
-        <v>902</v>
-      </c>
-      <c r="B1" s="186" t="s">
-        <v>903</v>
-      </c>
-      <c r="C1" s="186" t="s">
-        <v>904</v>
+      <c r="A1" s="154" t="s">
+        <v>899</v>
+      </c>
+      <c r="B1" s="154" t="s">
+        <v>900</v>
+      </c>
+      <c r="C1" s="154" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="119" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B2" s="119" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C2" s="119" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="119" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B3" s="119" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C3" s="119" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="119" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B4" s="119" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C4" s="119" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="119" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B5" s="119" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C5" s="119" t="s">
         <v>838</v>
@@ -6292,10 +6280,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="119" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B6" s="119" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C6" s="119" t="s">
         <v>839</v>
@@ -6303,10 +6291,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="119" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B7" s="119" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C7" s="119" t="s">
         <v>840</v>
@@ -6314,7 +6302,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="119" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B8" s="119" t="s">
         <v>836</v>
@@ -6325,43 +6313,43 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="119" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B9" s="119" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C9" s="119" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="119" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B10" s="119" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C10" s="119" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="119" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B11" s="119" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C11" s="119" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="119" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B12" s="119" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C12" s="119" t="s">
         <v>843</v>
@@ -6369,197 +6357,197 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="119" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B13" s="119" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C13" s="119" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="119" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B14" s="119" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C14" s="119" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="119" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B15" s="119" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C15" s="119" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="119" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B16" s="119" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C16" s="119" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="119" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B17" s="119" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C17" s="119" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="119" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B18" s="119" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C18" s="119" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="119" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B19" s="119" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C19" s="119" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="119" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B20" s="119" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C20" s="119" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="119" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B21" s="119" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C21" s="119" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="119" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B22" s="119" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C22" s="119" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="119" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B23" s="119" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C23" s="119" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="119" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B24" s="119" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C24" s="119" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="119" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B25" s="119" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C25" s="119" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="119" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B26" s="119" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C26" s="119" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="119" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B27" s="119" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C27" s="119" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="119" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B28" s="119" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C28" s="119" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="119" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B29" s="119" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C29" s="119" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="119" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B30" s="119" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C30" s="119" t="s">
         <v>849</v>
@@ -6567,10 +6555,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="119" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B31" s="119" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C31" s="119" t="s">
         <v>850</v>
@@ -6578,10 +6566,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="119" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B32" s="119" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C32" s="119" t="s">
         <v>845</v>
@@ -6589,10 +6577,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="119" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B33" s="119" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="C33" s="119" t="s">
         <v>851</v>
@@ -6600,43 +6588,43 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="119" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B34" s="119" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C34" s="119" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="119" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B35" s="119" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C35" s="119" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="119" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B36" s="119" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C36" s="119" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="119" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B37" s="119" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C37" s="119" t="s">
         <v>844</v>
@@ -6644,10 +6632,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="119" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B38" s="119" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C38" s="119" t="s">
         <v>852</v>
@@ -6655,10 +6643,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="119" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B39" s="119" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C39" s="119" t="s">
         <v>853</v>
@@ -6666,76 +6654,76 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="119" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B40" s="119" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C40" s="119" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="119" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B41" s="119" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C41" s="119" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="119" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B42" s="119" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C42" s="119" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="119" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B43" s="119" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="C43" s="119" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="119" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B44" s="119" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C44" s="119" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="119" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B45" s="119" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="C45" s="119" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="119" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B46" s="119" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C46" s="119" t="s">
         <v>848</v>
@@ -6743,10 +6731,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="119" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="B47" s="119" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="C47" s="119" t="s">
         <v>847</v>
@@ -6754,10 +6742,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="119" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B48" s="119" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C48" s="119" t="s">
         <v>846</v>
@@ -6765,10 +6753,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="119" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B49" s="119" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C49" s="119" t="s">
         <v>837</v>
@@ -6776,35 +6764,35 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="119" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B50" s="119" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C50" s="119" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="119" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B51" s="119" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C51" s="119" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="119" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B52" s="119" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="C52" s="119" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
   </sheetData>
@@ -6818,7 +6806,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4512312-10B1-4B4D-AFCB-97395D678D07}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6828,213 +6818,201 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="151" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B1" s="151"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B2" s="152" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B3" s="152" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B4" s="152" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B5" s="152" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B6" s="152" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B7" s="152" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B8" s="152" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="151" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B9" s="153"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B10" s="152" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B11" s="152" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B12" s="152" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B13" s="152" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B14" s="152" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B15" s="152" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="151" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B16" s="151"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B17" s="152" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B18" s="152" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B19" s="152" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B21" s="152" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B22" s="152" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B23" s="152" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>855</v>
-      </c>
-      <c r="B24" s="150" t="s">
-        <v>854</v>
-      </c>
+      <c r="B24" s="150"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>856</v>
-      </c>
-      <c r="B25" s="150" t="s">
-        <v>854</v>
-      </c>
+      <c r="B25" s="150"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1" xr:uid="{4D599D2A-B672-41E8-8FF5-6754DD95BF91}"/>
-    <hyperlink ref="B24" r:id="rId2" xr:uid="{93899CF4-E6BF-4B29-994D-23262FA37D7D}"/>
-    <hyperlink ref="B2" r:id="rId3" location="/Spaces-1/" xr:uid="{C85F4452-63C7-4D1F-A378-2745CF75775F}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{64536438-E60E-4440-AAF9-D9AA8E9210F4}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{00E2D679-7A7D-4952-86AF-1425FA2EF912}"/>
-    <hyperlink ref="B5" r:id="rId6" xr:uid="{55CD90F4-D4C1-484A-93A0-0D105D3D2E59}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{99A410B0-9DAC-452A-91DD-83303C97DF4A}"/>
-    <hyperlink ref="B13" r:id="rId8" xr:uid="{DD047AB4-EA2A-4C76-BE38-E1B865C26DCE}"/>
-    <hyperlink ref="B22" r:id="rId9" xr:uid="{8FE127FF-B37D-4801-840C-E03812F12538}"/>
+    <hyperlink ref="B2" r:id="rId1" location="/Spaces-1/" xr:uid="{C85F4452-63C7-4D1F-A378-2745CF75775F}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{64536438-E60E-4440-AAF9-D9AA8E9210F4}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00E2D679-7A7D-4952-86AF-1425FA2EF912}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{55CD90F4-D4C1-484A-93A0-0D105D3D2E59}"/>
+    <hyperlink ref="B11" r:id="rId5" xr:uid="{99A410B0-9DAC-452A-91DD-83303C97DF4A}"/>
+    <hyperlink ref="B13" r:id="rId6" xr:uid="{DD047AB4-EA2A-4C76-BE38-E1B865C26DCE}"/>
+    <hyperlink ref="B22" r:id="rId7" xr:uid="{8FE127FF-B37D-4801-840C-E03812F12538}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -7691,7 +7669,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="165">
+      <c r="B2" s="163">
         <v>2.75</v>
       </c>
       <c r="C2" s="130">
@@ -7708,7 +7686,7 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="165"/>
+      <c r="B3" s="163"/>
       <c r="C3" s="130" t="s">
         <v>563</v>
       </c>
@@ -7723,7 +7701,7 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="165">
+      <c r="B4" s="163">
         <v>2.76</v>
       </c>
       <c r="C4" s="130">
@@ -7742,7 +7720,7 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="165"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="130" t="s">
         <v>565</v>
       </c>
@@ -7759,7 +7737,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="165">
+      <c r="B6" s="163">
         <v>2.77</v>
       </c>
       <c r="C6" s="130">
@@ -7778,7 +7756,7 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="165"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="130" t="s">
         <v>567</v>
       </c>
@@ -7795,7 +7773,7 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="165">
+      <c r="B8" s="163">
         <v>2.78</v>
       </c>
       <c r="C8" s="130">
@@ -7814,7 +7792,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="165"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="130" t="s">
         <v>569</v>
       </c>
@@ -7831,7 +7809,7 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="165">
+      <c r="B10" s="163">
         <v>2.79</v>
       </c>
       <c r="C10" s="130">
@@ -7850,7 +7828,7 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="165"/>
+      <c r="B11" s="163"/>
       <c r="C11" s="130" t="s">
         <v>571</v>
       </c>
@@ -7867,7 +7845,7 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="164" t="s">
+      <c r="B12" s="166" t="s">
         <v>530</v>
       </c>
       <c r="C12" s="130">
@@ -7880,13 +7858,13 @@
         <v>7.71</v>
       </c>
       <c r="F12" s="129"/>
-      <c r="G12" s="164"/>
+      <c r="G12" s="166"/>
       <c r="H12" s="130"/>
       <c r="I12" s="132"/>
       <c r="J12" s="131"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="165"/>
+      <c r="B13" s="163"/>
       <c r="C13" s="130" t="s">
         <v>573</v>
       </c>
@@ -7897,7 +7875,7 @@
         <v>573</v>
       </c>
       <c r="F13" s="129"/>
-      <c r="G13" s="165"/>
+      <c r="G13" s="163"/>
       <c r="H13" s="130"/>
       <c r="I13" s="130"/>
       <c r="J13" s="131"/>
@@ -7906,7 +7884,7 @@
       <c r="A14" t="s">
         <v>711</v>
       </c>
-      <c r="B14" s="162" t="s">
+      <c r="B14" s="164" t="s">
         <v>641</v>
       </c>
       <c r="C14" s="122" t="s">
@@ -7919,7 +7897,7 @@
         <v>672</v>
       </c>
       <c r="F14" s="123"/>
-      <c r="G14" s="162" t="s">
+      <c r="G14" s="164" t="s">
         <v>678</v>
       </c>
       <c r="H14" s="122" t="s">
@@ -7933,7 +7911,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="163"/>
+      <c r="B15" s="165"/>
       <c r="C15" s="91" t="s">
         <v>651</v>
       </c>
@@ -7944,7 +7922,7 @@
         <v>651</v>
       </c>
       <c r="F15" s="124"/>
-      <c r="G15" s="163"/>
+      <c r="G15" s="165"/>
       <c r="H15" s="91" t="s">
         <v>691</v>
       </c>
@@ -7959,7 +7937,7 @@
       <c r="A16" t="s">
         <v>712</v>
       </c>
-      <c r="B16" s="164" t="s">
+      <c r="B16" s="166" t="s">
         <v>642</v>
       </c>
       <c r="C16" s="117" t="s">
@@ -7972,7 +7950,7 @@
         <v>674</v>
       </c>
       <c r="F16" s="123"/>
-      <c r="G16" s="164" t="s">
+      <c r="G16" s="166" t="s">
         <v>679</v>
       </c>
       <c r="H16" s="117" t="s">
@@ -7986,7 +7964,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="165"/>
+      <c r="B17" s="163"/>
       <c r="C17" s="1" t="s">
         <v>652</v>
       </c>
@@ -7997,7 +7975,7 @@
         <v>652</v>
       </c>
       <c r="F17" s="124"/>
-      <c r="G17" s="165"/>
+      <c r="G17" s="163"/>
       <c r="H17" s="1" t="s">
         <v>692</v>
       </c>
@@ -8012,7 +7990,7 @@
       <c r="A18" t="s">
         <v>713</v>
       </c>
-      <c r="B18" s="162" t="s">
+      <c r="B18" s="164" t="s">
         <v>643</v>
       </c>
       <c r="C18" s="120">
@@ -8025,7 +8003,7 @@
         <v>7.7699999999999987</v>
       </c>
       <c r="F18" s="125"/>
-      <c r="G18" s="162" t="s">
+      <c r="G18" s="164" t="s">
         <v>680</v>
       </c>
       <c r="H18" s="122" t="s">
@@ -8039,7 +8017,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="163"/>
+      <c r="B19" s="165"/>
       <c r="C19" s="121" t="s">
         <v>653</v>
       </c>
@@ -8050,7 +8028,7 @@
         <v>653</v>
       </c>
       <c r="F19" s="126"/>
-      <c r="G19" s="163"/>
+      <c r="G19" s="165"/>
       <c r="H19" s="91" t="s">
         <v>693</v>
       </c>
@@ -8062,7 +8040,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="164" t="s">
+      <c r="B20" s="166" t="s">
         <v>644</v>
       </c>
       <c r="C20" s="118">
@@ -8075,7 +8053,7 @@
         <v>7.7899999999999983</v>
       </c>
       <c r="F20" s="125"/>
-      <c r="G20" s="164" t="s">
+      <c r="G20" s="166" t="s">
         <v>681</v>
       </c>
       <c r="H20" s="117" t="s">
@@ -8089,7 +8067,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="165"/>
+      <c r="B21" s="163"/>
       <c r="C21" s="119" t="s">
         <v>654</v>
       </c>
@@ -8100,7 +8078,7 @@
         <v>654</v>
       </c>
       <c r="F21" s="126"/>
-      <c r="G21" s="165"/>
+      <c r="G21" s="163"/>
       <c r="H21" s="1" t="s">
         <v>694</v>
       </c>
@@ -8112,7 +8090,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="162" t="s">
+      <c r="B22" s="164" t="s">
         <v>645</v>
       </c>
       <c r="C22" s="120">
@@ -8125,7 +8103,7 @@
         <v>7.8099999999999978</v>
       </c>
       <c r="F22" s="125"/>
-      <c r="G22" s="162" t="s">
+      <c r="G22" s="164" t="s">
         <v>682</v>
       </c>
       <c r="H22" s="122"/>
@@ -8133,7 +8111,7 @@
       <c r="J22" s="122"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="163"/>
+      <c r="B23" s="165"/>
       <c r="C23" s="121" t="s">
         <v>655</v>
       </c>
@@ -8144,13 +8122,13 @@
         <v>655</v>
       </c>
       <c r="F23" s="126"/>
-      <c r="G23" s="163"/>
+      <c r="G23" s="165"/>
       <c r="H23" s="91"/>
       <c r="I23" s="91"/>
       <c r="J23" s="91"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="164" t="s">
+      <c r="B24" s="166" t="s">
         <v>646</v>
       </c>
       <c r="C24" s="118">
@@ -8163,7 +8141,7 @@
         <v>7.8299999999999974</v>
       </c>
       <c r="F24" s="125"/>
-      <c r="G24" s="164" t="s">
+      <c r="G24" s="166" t="s">
         <v>683</v>
       </c>
       <c r="H24" s="117"/>
@@ -8171,7 +8149,7 @@
       <c r="J24" s="117"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="165"/>
+      <c r="B25" s="163"/>
       <c r="C25" s="119" t="s">
         <v>656</v>
       </c>
@@ -8182,13 +8160,13 @@
         <v>656</v>
       </c>
       <c r="F25" s="126"/>
-      <c r="G25" s="165"/>
+      <c r="G25" s="163"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B26" s="162" t="s">
+      <c r="B26" s="164" t="s">
         <v>647</v>
       </c>
       <c r="C26" s="120">
@@ -8201,7 +8179,7 @@
         <v>7.849999999999997</v>
       </c>
       <c r="F26" s="125"/>
-      <c r="G26" s="162" t="s">
+      <c r="G26" s="164" t="s">
         <v>684</v>
       </c>
       <c r="H26" s="122"/>
@@ -8209,7 +8187,7 @@
       <c r="J26" s="122"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B27" s="163"/>
+      <c r="B27" s="165"/>
       <c r="C27" s="121" t="s">
         <v>657</v>
       </c>
@@ -8220,13 +8198,13 @@
         <v>657</v>
       </c>
       <c r="F27" s="126"/>
-      <c r="G27" s="163"/>
+      <c r="G27" s="165"/>
       <c r="H27" s="91"/>
       <c r="I27" s="91"/>
       <c r="J27" s="91"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B28" s="164" t="s">
+      <c r="B28" s="166" t="s">
         <v>648</v>
       </c>
       <c r="C28" s="118">
@@ -8239,7 +8217,7 @@
         <v>7.8699999999999966</v>
       </c>
       <c r="F28" s="125"/>
-      <c r="G28" s="164" t="s">
+      <c r="G28" s="166" t="s">
         <v>685</v>
       </c>
       <c r="H28" s="117"/>
@@ -8247,7 +8225,7 @@
       <c r="J28" s="117"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B29" s="165"/>
+      <c r="B29" s="163"/>
       <c r="C29" s="119" t="s">
         <v>658</v>
       </c>
@@ -8258,13 +8236,13 @@
         <v>658</v>
       </c>
       <c r="F29" s="126"/>
-      <c r="G29" s="165"/>
+      <c r="G29" s="163"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B30" s="162" t="s">
+      <c r="B30" s="164" t="s">
         <v>649</v>
       </c>
       <c r="C30" s="120">
@@ -8277,7 +8255,7 @@
         <v>7.8899999999999961</v>
       </c>
       <c r="F30" s="125"/>
-      <c r="G30" s="162" t="s">
+      <c r="G30" s="164" t="s">
         <v>686</v>
       </c>
       <c r="H30" s="122"/>
@@ -8285,7 +8263,7 @@
       <c r="J30" s="122"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B31" s="163"/>
+      <c r="B31" s="165"/>
       <c r="C31" s="121" t="s">
         <v>659</v>
       </c>
@@ -8296,13 +8274,13 @@
         <v>659</v>
       </c>
       <c r="F31" s="126"/>
-      <c r="G31" s="163"/>
+      <c r="G31" s="165"/>
       <c r="H31" s="91"/>
       <c r="I31" s="91"/>
       <c r="J31" s="91"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B32" s="164" t="s">
+      <c r="B32" s="166" t="s">
         <v>650</v>
       </c>
       <c r="C32" s="118">
@@ -8315,13 +8293,13 @@
         <v>7.9099999999999957</v>
       </c>
       <c r="F32" s="125"/>
-      <c r="G32" s="164"/>
+      <c r="G32" s="166"/>
       <c r="H32" s="117"/>
       <c r="I32" s="117"/>
       <c r="J32" s="117"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B33" s="165"/>
+      <c r="B33" s="163"/>
       <c r="C33" s="119" t="s">
         <v>660</v>
       </c>
@@ -8332,18 +8310,19 @@
         <v>660</v>
       </c>
       <c r="F33" s="126"/>
-      <c r="G33" s="165"/>
+      <c r="G33" s="163"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
@@ -8360,12 +8339,11 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8452,10 +8430,10 @@
       <c r="A1" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="B1" s="173" t="s">
+      <c r="B1" s="181" t="s">
         <v>396</v>
       </c>
-      <c r="C1" s="174"/>
+      <c r="C1" s="182"/>
       <c r="D1" s="68" t="s">
         <v>397</v>
       </c>
@@ -8470,19 +8448,19 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="180" t="s">
         <v>398</v>
       </c>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="174" t="s">
         <v>399</v>
       </c>
-      <c r="C2" s="171" t="s">
+      <c r="C2" s="177" t="s">
         <v>433</v>
       </c>
       <c r="D2" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="G2" s="180">
+      <c r="G2" s="167">
         <v>2.75</v>
       </c>
       <c r="H2" s="104" t="s">
@@ -8493,13 +8471,13 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="176"/>
-      <c r="B3" s="178"/>
-      <c r="C3" s="179"/>
+      <c r="A3" s="172"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="178"/>
       <c r="D3" s="69" t="s">
         <v>401</v>
       </c>
-      <c r="G3" s="181"/>
+      <c r="G3" s="168"/>
       <c r="H3" s="104">
         <v>7.61</v>
       </c>
@@ -8508,13 +8486,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="176"/>
-      <c r="B4" s="170"/>
-      <c r="C4" s="172"/>
+      <c r="A4" s="172"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="179"/>
       <c r="D4" s="70" t="s">
         <v>402</v>
       </c>
-      <c r="G4" s="180">
+      <c r="G4" s="167">
         <v>2.76</v>
       </c>
       <c r="H4" s="104" t="s">
@@ -8525,17 +8503,17 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="176"/>
-      <c r="B5" s="169" t="s">
+      <c r="A5" s="172"/>
+      <c r="B5" s="174" t="s">
         <v>403</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="177" t="s">
         <v>404</v>
       </c>
       <c r="D5" s="69" t="s">
         <v>405</v>
       </c>
-      <c r="G5" s="181"/>
+      <c r="G5" s="168"/>
       <c r="H5" s="104">
         <v>7.63</v>
       </c>
@@ -8544,13 +8522,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="176"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="179"/>
+      <c r="A6" s="172"/>
+      <c r="B6" s="175"/>
+      <c r="C6" s="178"/>
       <c r="D6" s="69" t="s">
         <v>406</v>
       </c>
-      <c r="G6" s="184">
+      <c r="G6" s="169">
         <v>2.77</v>
       </c>
       <c r="H6" s="105" t="s">
@@ -8561,13 +8539,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="177"/>
-      <c r="B7" s="170"/>
-      <c r="C7" s="172"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="179"/>
       <c r="D7" s="70" t="s">
         <v>407</v>
       </c>
-      <c r="G7" s="185"/>
+      <c r="G7" s="170"/>
       <c r="H7" s="105">
         <v>7.65</v>
       </c>
@@ -8576,19 +8554,19 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="166" t="s">
+      <c r="A8" s="184" t="s">
         <v>408</v>
       </c>
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="174" t="s">
         <v>399</v>
       </c>
-      <c r="C8" s="171" t="s">
+      <c r="C8" s="177" t="s">
         <v>409</v>
       </c>
       <c r="D8" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="G8" s="180">
+      <c r="G8" s="167">
         <v>2.78</v>
       </c>
       <c r="H8" s="104" t="s">
@@ -8599,13 +8577,13 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="167"/>
-      <c r="B9" s="170"/>
-      <c r="C9" s="172"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="179"/>
       <c r="D9" s="70" t="s">
         <v>410</v>
       </c>
-      <c r="G9" s="181"/>
+      <c r="G9" s="168"/>
       <c r="H9" s="104">
         <v>7.67</v>
       </c>
@@ -8614,17 +8592,17 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="167"/>
-      <c r="B10" s="169" t="s">
+      <c r="A10" s="185"/>
+      <c r="B10" s="174" t="s">
         <v>403</v>
       </c>
-      <c r="C10" s="171" t="s">
+      <c r="C10" s="177" t="s">
         <v>411</v>
       </c>
       <c r="D10" s="69" t="s">
         <v>412</v>
       </c>
-      <c r="G10" s="180">
+      <c r="G10" s="167">
         <v>2.79</v>
       </c>
       <c r="H10" s="104" t="s">
@@ -8635,13 +8613,13 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="168"/>
-      <c r="B11" s="170"/>
-      <c r="C11" s="172"/>
+      <c r="A11" s="186"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="179"/>
       <c r="D11" s="70" t="s">
         <v>413</v>
       </c>
-      <c r="G11" s="181"/>
+      <c r="G11" s="168"/>
       <c r="H11" s="104">
         <v>7.69</v>
       </c>
@@ -8650,19 +8628,19 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="120.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="175" t="s">
+      <c r="A12" s="180" t="s">
         <v>414</v>
       </c>
-      <c r="B12" s="169" t="s">
+      <c r="B12" s="174" t="s">
         <v>399</v>
       </c>
-      <c r="C12" s="171" t="s">
+      <c r="C12" s="177" t="s">
         <v>415</v>
       </c>
       <c r="D12" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="G12" s="180">
+      <c r="G12" s="167">
         <v>2.8</v>
       </c>
       <c r="H12" s="104" t="s">
@@ -8673,13 +8651,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="176"/>
-      <c r="B13" s="170"/>
-      <c r="C13" s="172"/>
+      <c r="A13" s="172"/>
+      <c r="B13" s="176"/>
+      <c r="C13" s="179"/>
       <c r="D13" s="70" t="s">
         <v>416</v>
       </c>
-      <c r="G13" s="181"/>
+      <c r="G13" s="168"/>
       <c r="H13" s="104">
         <v>7.71</v>
       </c>
@@ -8688,11 +8666,11 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="176"/>
-      <c r="B14" s="169" t="s">
+      <c r="A14" s="172"/>
+      <c r="B14" s="174" t="s">
         <v>403</v>
       </c>
-      <c r="C14" s="171" t="s">
+      <c r="C14" s="177" t="s">
         <v>417</v>
       </c>
       <c r="D14" s="69" t="s">
@@ -8700,21 +8678,21 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="183"/>
-      <c r="B15" s="170"/>
-      <c r="C15" s="172"/>
+      <c r="A15" s="173"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="179"/>
       <c r="D15" s="70" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="182" t="s">
+      <c r="A16" s="171" t="s">
         <v>418</v>
       </c>
-      <c r="B16" s="169" t="s">
+      <c r="B16" s="174" t="s">
         <v>399</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="177" t="s">
         <v>434</v>
       </c>
       <c r="D16" s="69" t="s">
@@ -8722,19 +8700,19 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="176"/>
-      <c r="B17" s="170"/>
-      <c r="C17" s="172"/>
+      <c r="A17" s="172"/>
+      <c r="B17" s="176"/>
+      <c r="C17" s="179"/>
       <c r="D17" s="70" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="176"/>
-      <c r="B18" s="169" t="s">
+      <c r="A18" s="172"/>
+      <c r="B18" s="174" t="s">
         <v>403</v>
       </c>
-      <c r="C18" s="171" t="s">
+      <c r="C18" s="177" t="s">
         <v>420</v>
       </c>
       <c r="D18" s="69" t="s">
@@ -8742,21 +8720,21 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="183"/>
-      <c r="B19" s="170"/>
-      <c r="C19" s="172"/>
+      <c r="A19" s="173"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="179"/>
       <c r="D19" s="70" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="182" t="s">
+      <c r="A20" s="171" t="s">
         <v>422</v>
       </c>
-      <c r="B20" s="169" t="s">
+      <c r="B20" s="174" t="s">
         <v>423</v>
       </c>
-      <c r="C20" s="171" t="s">
+      <c r="C20" s="177" t="s">
         <v>424</v>
       </c>
       <c r="D20" s="69" t="s">
@@ -8764,51 +8742,51 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A21" s="176"/>
-      <c r="B21" s="178"/>
-      <c r="C21" s="179"/>
+      <c r="A21" s="172"/>
+      <c r="B21" s="175"/>
+      <c r="C21" s="178"/>
       <c r="D21" s="69" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="176"/>
-      <c r="B22" s="178"/>
-      <c r="C22" s="179"/>
+      <c r="A22" s="172"/>
+      <c r="B22" s="175"/>
+      <c r="C22" s="178"/>
       <c r="D22" s="69" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="176"/>
-      <c r="B23" s="178"/>
-      <c r="C23" s="179"/>
+      <c r="A23" s="172"/>
+      <c r="B23" s="175"/>
+      <c r="C23" s="178"/>
       <c r="D23" s="69" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A24" s="176"/>
-      <c r="B24" s="178"/>
-      <c r="C24" s="179"/>
+      <c r="A24" s="172"/>
+      <c r="B24" s="175"/>
+      <c r="C24" s="178"/>
       <c r="D24" s="69" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="176"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="172"/>
+      <c r="A25" s="172"/>
+      <c r="B25" s="176"/>
+      <c r="C25" s="179"/>
       <c r="D25" s="70" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="176"/>
-      <c r="B26" s="169" t="s">
+      <c r="A26" s="172"/>
+      <c r="B26" s="174" t="s">
         <v>403</v>
       </c>
-      <c r="C26" s="171" t="s">
+      <c r="C26" s="177" t="s">
         <v>430</v>
       </c>
       <c r="D26" s="69" t="s">
@@ -8816,17 +8794,17 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="176"/>
-      <c r="B27" s="178"/>
-      <c r="C27" s="179"/>
+      <c r="A27" s="172"/>
+      <c r="B27" s="175"/>
+      <c r="C27" s="178"/>
       <c r="D27" s="69" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="183"/>
-      <c r="B28" s="170"/>
-      <c r="C28" s="172"/>
+      <c r="A28" s="173"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="179"/>
       <c r="D28" s="70" t="s">
         <v>432</v>
       </c>
@@ -8884,11 +8862,17 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="B20:B25"/>
@@ -8905,17 +8889,11 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -12613,19 +12591,19 @@
       <c r="F244" s="148"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A245" s="158">
+      <c r="A245" s="159">
         <v>202101</v>
       </c>
-      <c r="B245" s="160" t="s">
+      <c r="B245" s="161" t="s">
         <v>730</v>
       </c>
-      <c r="C245" s="160" t="s">
+      <c r="C245" s="161" t="s">
         <v>734</v>
       </c>
-      <c r="D245" s="160" t="s">
+      <c r="D245" s="161" t="s">
         <v>735</v>
       </c>
-      <c r="E245" s="160" t="s">
+      <c r="E245" s="161" t="s">
         <v>445</v>
       </c>
       <c r="F245" s="145" t="s">
@@ -12633,29 +12611,29 @@
       </c>
     </row>
     <row r="246" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="159"/>
-      <c r="B246" s="161"/>
-      <c r="C246" s="161"/>
-      <c r="D246" s="161"/>
-      <c r="E246" s="161"/>
+      <c r="A246" s="160"/>
+      <c r="B246" s="162"/>
+      <c r="C246" s="162"/>
+      <c r="D246" s="162"/>
+      <c r="E246" s="162"/>
       <c r="F246" s="146" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A247" s="158">
+      <c r="A247" s="159">
         <v>202101</v>
       </c>
-      <c r="B247" s="160" t="s">
+      <c r="B247" s="161" t="s">
         <v>731</v>
       </c>
-      <c r="C247" s="160" t="s">
+      <c r="C247" s="161" t="s">
         <v>736</v>
       </c>
-      <c r="D247" s="160" t="s">
+      <c r="D247" s="161" t="s">
         <v>737</v>
       </c>
-      <c r="E247" s="160" t="s">
+      <c r="E247" s="161" t="s">
         <v>738</v>
       </c>
       <c r="F247" s="145" t="s">
@@ -12663,29 +12641,29 @@
       </c>
     </row>
     <row r="248" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="159"/>
-      <c r="B248" s="161"/>
-      <c r="C248" s="161"/>
-      <c r="D248" s="161"/>
-      <c r="E248" s="161"/>
+      <c r="A248" s="160"/>
+      <c r="B248" s="162"/>
+      <c r="C248" s="162"/>
+      <c r="D248" s="162"/>
+      <c r="E248" s="162"/>
       <c r="F248" s="146" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A249" s="158">
+      <c r="A249" s="159">
         <v>202101</v>
       </c>
-      <c r="B249" s="160" t="s">
+      <c r="B249" s="161" t="s">
         <v>732</v>
       </c>
-      <c r="C249" s="160" t="s">
+      <c r="C249" s="161" t="s">
         <v>734</v>
       </c>
-      <c r="D249" s="160" t="s">
+      <c r="D249" s="161" t="s">
         <v>735</v>
       </c>
-      <c r="E249" s="160" t="s">
+      <c r="E249" s="161" t="s">
         <v>445</v>
       </c>
       <c r="F249" s="145" t="s">
@@ -12693,29 +12671,29 @@
       </c>
     </row>
     <row r="250" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="159"/>
-      <c r="B250" s="161"/>
-      <c r="C250" s="161"/>
-      <c r="D250" s="161"/>
-      <c r="E250" s="161"/>
+      <c r="A250" s="160"/>
+      <c r="B250" s="162"/>
+      <c r="C250" s="162"/>
+      <c r="D250" s="162"/>
+      <c r="E250" s="162"/>
       <c r="F250" s="146" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A251" s="158">
+      <c r="A251" s="159">
         <v>202101</v>
       </c>
-      <c r="B251" s="160" t="s">
+      <c r="B251" s="161" t="s">
         <v>733</v>
       </c>
-      <c r="C251" s="160" t="s">
+      <c r="C251" s="161" t="s">
         <v>736</v>
       </c>
-      <c r="D251" s="160" t="s">
+      <c r="D251" s="161" t="s">
         <v>737</v>
       </c>
-      <c r="E251" s="160" t="s">
+      <c r="E251" s="161" t="s">
         <v>738</v>
       </c>
       <c r="F251" s="145" t="s">
@@ -12723,29 +12701,29 @@
       </c>
     </row>
     <row r="252" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="159"/>
-      <c r="B252" s="161"/>
-      <c r="C252" s="161"/>
-      <c r="D252" s="161"/>
-      <c r="E252" s="161"/>
+      <c r="A252" s="160"/>
+      <c r="B252" s="162"/>
+      <c r="C252" s="162"/>
+      <c r="D252" s="162"/>
+      <c r="E252" s="162"/>
       <c r="F252" s="146" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A253" s="154">
+      <c r="A253" s="155">
         <v>202102</v>
       </c>
-      <c r="B253" s="156" t="s">
+      <c r="B253" s="157" t="s">
         <v>747</v>
       </c>
-      <c r="C253" s="156" t="s">
+      <c r="C253" s="157" t="s">
         <v>748</v>
       </c>
-      <c r="D253" s="156" t="s">
+      <c r="D253" s="157" t="s">
         <v>749</v>
       </c>
-      <c r="E253" s="156" t="s">
+      <c r="E253" s="157" t="s">
         <v>750</v>
       </c>
       <c r="F253" s="94" t="s">
@@ -12753,29 +12731,29 @@
       </c>
     </row>
     <row r="254" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="155"/>
-      <c r="B254" s="157"/>
-      <c r="C254" s="157"/>
-      <c r="D254" s="157"/>
-      <c r="E254" s="157"/>
+      <c r="A254" s="156"/>
+      <c r="B254" s="158"/>
+      <c r="C254" s="158"/>
+      <c r="D254" s="158"/>
+      <c r="E254" s="158"/>
       <c r="F254" s="74" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="154">
+      <c r="A255" s="155">
         <v>202102</v>
       </c>
-      <c r="B255" s="156" t="s">
+      <c r="B255" s="157" t="s">
         <v>753</v>
       </c>
-      <c r="C255" s="156" t="s">
+      <c r="C255" s="157" t="s">
         <v>754</v>
       </c>
-      <c r="D255" s="156" t="s">
+      <c r="D255" s="157" t="s">
         <v>755</v>
       </c>
-      <c r="E255" s="156" t="s">
+      <c r="E255" s="157" t="s">
         <v>756</v>
       </c>
       <c r="F255" s="143" t="s">
@@ -12783,29 +12761,29 @@
       </c>
     </row>
     <row r="256" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="155"/>
-      <c r="B256" s="157"/>
-      <c r="C256" s="157"/>
-      <c r="D256" s="157"/>
-      <c r="E256" s="157"/>
+      <c r="A256" s="156"/>
+      <c r="B256" s="158"/>
+      <c r="C256" s="158"/>
+      <c r="D256" s="158"/>
+      <c r="E256" s="158"/>
       <c r="F256" s="74" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A257" s="154">
+      <c r="A257" s="155">
         <v>202102</v>
       </c>
-      <c r="B257" s="156" t="s">
+      <c r="B257" s="157" t="s">
         <v>759</v>
       </c>
-      <c r="C257" s="156" t="s">
+      <c r="C257" s="157" t="s">
         <v>748</v>
       </c>
-      <c r="D257" s="156" t="s">
+      <c r="D257" s="157" t="s">
         <v>749</v>
       </c>
-      <c r="E257" s="156" t="s">
+      <c r="E257" s="157" t="s">
         <v>750</v>
       </c>
       <c r="F257" s="143" t="s">
@@ -12813,29 +12791,29 @@
       </c>
     </row>
     <row r="258" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="155"/>
-      <c r="B258" s="157"/>
-      <c r="C258" s="157"/>
-      <c r="D258" s="157"/>
-      <c r="E258" s="157"/>
+      <c r="A258" s="156"/>
+      <c r="B258" s="158"/>
+      <c r="C258" s="158"/>
+      <c r="D258" s="158"/>
+      <c r="E258" s="158"/>
       <c r="F258" s="144" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="154">
+      <c r="A259" s="155">
         <v>202102</v>
       </c>
-      <c r="B259" s="156" t="s">
+      <c r="B259" s="157" t="s">
         <v>762</v>
       </c>
-      <c r="C259" s="156" t="s">
+      <c r="C259" s="157" t="s">
         <v>754</v>
       </c>
-      <c r="D259" s="156" t="s">
+      <c r="D259" s="157" t="s">
         <v>755</v>
       </c>
-      <c r="E259" s="156" t="s">
+      <c r="E259" s="157" t="s">
         <v>756</v>
       </c>
       <c r="F259" s="143" t="s">
@@ -12843,29 +12821,29 @@
       </c>
     </row>
     <row r="260" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="155"/>
-      <c r="B260" s="157"/>
-      <c r="C260" s="157"/>
-      <c r="D260" s="157"/>
-      <c r="E260" s="157"/>
+      <c r="A260" s="156"/>
+      <c r="B260" s="158"/>
+      <c r="C260" s="158"/>
+      <c r="D260" s="158"/>
+      <c r="E260" s="158"/>
       <c r="F260" s="74" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A261" s="158">
+      <c r="A261" s="159">
         <v>202103</v>
       </c>
-      <c r="B261" s="160" t="s">
+      <c r="B261" s="161" t="s">
         <v>765</v>
       </c>
-      <c r="C261" s="160" t="s">
+      <c r="C261" s="161" t="s">
         <v>769</v>
       </c>
-      <c r="D261" s="160" t="s">
+      <c r="D261" s="161" t="s">
         <v>782</v>
       </c>
-      <c r="E261" s="160" t="s">
+      <c r="E261" s="161" t="s">
         <v>770</v>
       </c>
       <c r="F261" s="145" t="s">
@@ -12873,29 +12851,29 @@
       </c>
     </row>
     <row r="262" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="159"/>
-      <c r="B262" s="161"/>
-      <c r="C262" s="161"/>
-      <c r="D262" s="161"/>
-      <c r="E262" s="161"/>
+      <c r="A262" s="160"/>
+      <c r="B262" s="162"/>
+      <c r="C262" s="162"/>
+      <c r="D262" s="162"/>
+      <c r="E262" s="162"/>
       <c r="F262" s="146" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A263" s="158">
+      <c r="A263" s="159">
         <v>202103</v>
       </c>
-      <c r="B263" s="160" t="s">
+      <c r="B263" s="161" t="s">
         <v>766</v>
       </c>
-      <c r="C263" s="160" t="s">
+      <c r="C263" s="161" t="s">
         <v>771</v>
       </c>
-      <c r="D263" s="160" t="s">
+      <c r="D263" s="161" t="s">
         <v>772</v>
       </c>
-      <c r="E263" s="160" t="s">
+      <c r="E263" s="161" t="s">
         <v>773</v>
       </c>
       <c r="F263" s="145" t="s">
@@ -12903,29 +12881,29 @@
       </c>
     </row>
     <row r="264" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="159"/>
-      <c r="B264" s="161"/>
-      <c r="C264" s="161"/>
-      <c r="D264" s="161"/>
-      <c r="E264" s="161"/>
+      <c r="A264" s="160"/>
+      <c r="B264" s="162"/>
+      <c r="C264" s="162"/>
+      <c r="D264" s="162"/>
+      <c r="E264" s="162"/>
       <c r="F264" s="146" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A265" s="158">
+      <c r="A265" s="159">
         <v>202103</v>
       </c>
-      <c r="B265" s="160" t="s">
+      <c r="B265" s="161" t="s">
         <v>767</v>
       </c>
-      <c r="C265" s="160" t="s">
+      <c r="C265" s="161" t="s">
         <v>769</v>
       </c>
-      <c r="D265" s="160" t="s">
+      <c r="D265" s="161" t="s">
         <v>782</v>
       </c>
-      <c r="E265" s="160" t="s">
+      <c r="E265" s="161" t="s">
         <v>770</v>
       </c>
       <c r="F265" s="145" t="s">
@@ -12933,29 +12911,29 @@
       </c>
     </row>
     <row r="266" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="159"/>
-      <c r="B266" s="161"/>
-      <c r="C266" s="161"/>
-      <c r="D266" s="161"/>
-      <c r="E266" s="161"/>
+      <c r="A266" s="160"/>
+      <c r="B266" s="162"/>
+      <c r="C266" s="162"/>
+      <c r="D266" s="162"/>
+      <c r="E266" s="162"/>
       <c r="F266" s="146" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A267" s="158">
+      <c r="A267" s="159">
         <v>202103</v>
       </c>
-      <c r="B267" s="160" t="s">
+      <c r="B267" s="161" t="s">
         <v>768</v>
       </c>
-      <c r="C267" s="160" t="s">
+      <c r="C267" s="161" t="s">
         <v>771</v>
       </c>
-      <c r="D267" s="160" t="s">
+      <c r="D267" s="161" t="s">
         <v>772</v>
       </c>
-      <c r="E267" s="160" t="s">
+      <c r="E267" s="161" t="s">
         <v>773</v>
       </c>
       <c r="F267" s="145" t="s">
@@ -12963,29 +12941,29 @@
       </c>
     </row>
     <row r="268" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="159"/>
-      <c r="B268" s="161"/>
-      <c r="C268" s="161"/>
-      <c r="D268" s="161"/>
-      <c r="E268" s="161"/>
+      <c r="A268" s="160"/>
+      <c r="B268" s="162"/>
+      <c r="C268" s="162"/>
+      <c r="D268" s="162"/>
+      <c r="E268" s="162"/>
       <c r="F268" s="146" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A269" s="154">
+      <c r="A269" s="155">
         <v>202104</v>
       </c>
-      <c r="B269" s="156" t="s">
+      <c r="B269" s="157" t="s">
         <v>783</v>
       </c>
-      <c r="C269" s="156" t="s">
+      <c r="C269" s="157" t="s">
         <v>784</v>
       </c>
-      <c r="D269" s="156" t="s">
+      <c r="D269" s="157" t="s">
         <v>785</v>
       </c>
-      <c r="E269" s="156" t="s">
+      <c r="E269" s="157" t="s">
         <v>786</v>
       </c>
       <c r="F269" s="94" t="s">
@@ -12993,29 +12971,29 @@
       </c>
     </row>
     <row r="270" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="155"/>
-      <c r="B270" s="157"/>
-      <c r="C270" s="157"/>
-      <c r="D270" s="157"/>
-      <c r="E270" s="157"/>
+      <c r="A270" s="156"/>
+      <c r="B270" s="158"/>
+      <c r="C270" s="158"/>
+      <c r="D270" s="158"/>
+      <c r="E270" s="158"/>
       <c r="F270" s="74" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A271" s="154">
+      <c r="A271" s="155">
         <v>202104</v>
       </c>
-      <c r="B271" s="156" t="s">
+      <c r="B271" s="157" t="s">
         <v>789</v>
       </c>
-      <c r="C271" s="156" t="s">
+      <c r="C271" s="157" t="s">
         <v>790</v>
       </c>
-      <c r="D271" s="156" t="s">
+      <c r="D271" s="157" t="s">
         <v>791</v>
       </c>
-      <c r="E271" s="156" t="s">
+      <c r="E271" s="157" t="s">
         <v>792</v>
       </c>
       <c r="F271" s="143" t="s">
@@ -13023,29 +13001,29 @@
       </c>
     </row>
     <row r="272" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="155"/>
-      <c r="B272" s="157"/>
-      <c r="C272" s="157"/>
-      <c r="D272" s="157"/>
-      <c r="E272" s="157"/>
+      <c r="A272" s="156"/>
+      <c r="B272" s="158"/>
+      <c r="C272" s="158"/>
+      <c r="D272" s="158"/>
+      <c r="E272" s="158"/>
       <c r="F272" s="74" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A273" s="154">
+      <c r="A273" s="155">
         <v>202104</v>
       </c>
-      <c r="B273" s="156" t="s">
+      <c r="B273" s="157" t="s">
         <v>795</v>
       </c>
-      <c r="C273" s="156" t="s">
+      <c r="C273" s="157" t="s">
         <v>784</v>
       </c>
-      <c r="D273" s="156" t="s">
+      <c r="D273" s="157" t="s">
         <v>785</v>
       </c>
-      <c r="E273" s="156" t="s">
+      <c r="E273" s="157" t="s">
         <v>786</v>
       </c>
       <c r="F273" s="143" t="s">
@@ -13053,29 +13031,29 @@
       </c>
     </row>
     <row r="274" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="155"/>
-      <c r="B274" s="157"/>
-      <c r="C274" s="157"/>
-      <c r="D274" s="157"/>
-      <c r="E274" s="157"/>
+      <c r="A274" s="156"/>
+      <c r="B274" s="158"/>
+      <c r="C274" s="158"/>
+      <c r="D274" s="158"/>
+      <c r="E274" s="158"/>
       <c r="F274" s="144" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A275" s="154">
+      <c r="A275" s="155">
         <v>202104</v>
       </c>
-      <c r="B275" s="156" t="s">
+      <c r="B275" s="157" t="s">
         <v>798</v>
       </c>
-      <c r="C275" s="156" t="s">
+      <c r="C275" s="157" t="s">
         <v>790</v>
       </c>
-      <c r="D275" s="156" t="s">
+      <c r="D275" s="157" t="s">
         <v>791</v>
       </c>
-      <c r="E275" s="156" t="s">
+      <c r="E275" s="157" t="s">
         <v>792</v>
       </c>
       <c r="F275" s="143" t="s">
@@ -13083,29 +13061,29 @@
       </c>
     </row>
     <row r="276" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="155"/>
-      <c r="B276" s="157"/>
-      <c r="C276" s="157"/>
-      <c r="D276" s="157"/>
-      <c r="E276" s="157"/>
+      <c r="A276" s="156"/>
+      <c r="B276" s="158"/>
+      <c r="C276" s="158"/>
+      <c r="D276" s="158"/>
+      <c r="E276" s="158"/>
       <c r="F276" s="74" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A277" s="158">
+      <c r="A277" s="159">
         <v>202105</v>
       </c>
-      <c r="B277" s="160" t="s">
+      <c r="B277" s="161" t="s">
         <v>818</v>
       </c>
-      <c r="C277" s="160" t="s">
+      <c r="C277" s="161" t="s">
         <v>819</v>
       </c>
-      <c r="D277" s="160" t="s">
+      <c r="D277" s="161" t="s">
         <v>820</v>
       </c>
-      <c r="E277" s="160" t="s">
+      <c r="E277" s="161" t="s">
         <v>821</v>
       </c>
       <c r="F277" s="145" t="s">
@@ -13113,29 +13091,29 @@
       </c>
     </row>
     <row r="278" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="159"/>
-      <c r="B278" s="161"/>
-      <c r="C278" s="161"/>
-      <c r="D278" s="161"/>
-      <c r="E278" s="161"/>
+      <c r="A278" s="160"/>
+      <c r="B278" s="162"/>
+      <c r="C278" s="162"/>
+      <c r="D278" s="162"/>
+      <c r="E278" s="162"/>
       <c r="F278" s="146" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A279" s="158">
+      <c r="A279" s="159">
         <v>202105</v>
       </c>
-      <c r="B279" s="160" t="s">
+      <c r="B279" s="161" t="s">
         <v>824</v>
       </c>
-      <c r="C279" s="160" t="s">
+      <c r="C279" s="161" t="s">
         <v>825</v>
       </c>
-      <c r="D279" s="160" t="s">
+      <c r="D279" s="161" t="s">
         <v>826</v>
       </c>
-      <c r="E279" s="160" t="s">
+      <c r="E279" s="161" t="s">
         <v>827</v>
       </c>
       <c r="F279" s="145" t="s">
@@ -13143,29 +13121,29 @@
       </c>
     </row>
     <row r="280" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="159"/>
-      <c r="B280" s="161"/>
-      <c r="C280" s="161"/>
-      <c r="D280" s="161"/>
-      <c r="E280" s="161"/>
+      <c r="A280" s="160"/>
+      <c r="B280" s="162"/>
+      <c r="C280" s="162"/>
+      <c r="D280" s="162"/>
+      <c r="E280" s="162"/>
       <c r="F280" s="146" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="158">
+      <c r="A281" s="159">
         <v>202105</v>
       </c>
-      <c r="B281" s="160" t="s">
+      <c r="B281" s="161" t="s">
         <v>830</v>
       </c>
-      <c r="C281" s="160" t="s">
+      <c r="C281" s="161" t="s">
         <v>819</v>
       </c>
-      <c r="D281" s="160" t="s">
+      <c r="D281" s="161" t="s">
         <v>820</v>
       </c>
-      <c r="E281" s="160" t="s">
+      <c r="E281" s="161" t="s">
         <v>821</v>
       </c>
       <c r="F281" s="145" t="s">
@@ -13173,29 +13151,29 @@
       </c>
     </row>
     <row r="282" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="159"/>
-      <c r="B282" s="161"/>
-      <c r="C282" s="161"/>
-      <c r="D282" s="161"/>
-      <c r="E282" s="161"/>
+      <c r="A282" s="160"/>
+      <c r="B282" s="162"/>
+      <c r="C282" s="162"/>
+      <c r="D282" s="162"/>
+      <c r="E282" s="162"/>
       <c r="F282" s="146" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A283" s="158">
+      <c r="A283" s="159">
         <v>202105</v>
       </c>
-      <c r="B283" s="160" t="s">
+      <c r="B283" s="161" t="s">
         <v>833</v>
       </c>
-      <c r="C283" s="160" t="s">
+      <c r="C283" s="161" t="s">
         <v>825</v>
       </c>
-      <c r="D283" s="160" t="s">
+      <c r="D283" s="161" t="s">
         <v>826</v>
       </c>
-      <c r="E283" s="160" t="s">
+      <c r="E283" s="161" t="s">
         <v>827</v>
       </c>
       <c r="F283" s="145" t="s">
@@ -13203,29 +13181,29 @@
       </c>
     </row>
     <row r="284" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="159"/>
-      <c r="B284" s="161"/>
-      <c r="C284" s="161"/>
-      <c r="D284" s="161"/>
-      <c r="E284" s="161"/>
+      <c r="A284" s="160"/>
+      <c r="B284" s="162"/>
+      <c r="C284" s="162"/>
+      <c r="D284" s="162"/>
+      <c r="E284" s="162"/>
       <c r="F284" s="146" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A285" s="154">
+      <c r="A285" s="155">
         <v>202106</v>
       </c>
-      <c r="B285" s="156" t="s">
+      <c r="B285" s="157" t="s">
         <v>809</v>
       </c>
-      <c r="C285" s="156" t="s">
+      <c r="C285" s="157" t="s">
         <v>815</v>
       </c>
-      <c r="D285" s="156" t="s">
+      <c r="D285" s="157" t="s">
         <v>816</v>
       </c>
-      <c r="E285" s="156" t="s">
+      <c r="E285" s="157" t="s">
         <v>817</v>
       </c>
       <c r="F285" s="94" t="s">
@@ -13233,29 +13211,29 @@
       </c>
     </row>
     <row r="286" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="155"/>
-      <c r="B286" s="157"/>
-      <c r="C286" s="157"/>
-      <c r="D286" s="157"/>
-      <c r="E286" s="157"/>
+      <c r="A286" s="156"/>
+      <c r="B286" s="158"/>
+      <c r="C286" s="158"/>
+      <c r="D286" s="158"/>
+      <c r="E286" s="158"/>
       <c r="F286" s="74" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A287" s="154">
+      <c r="A287" s="155">
         <v>202106</v>
       </c>
-      <c r="B287" s="156" t="s">
+      <c r="B287" s="157" t="s">
         <v>810</v>
       </c>
-      <c r="C287" s="156" t="s">
+      <c r="C287" s="157" t="s">
         <v>542</v>
       </c>
-      <c r="D287" s="156" t="s">
+      <c r="D287" s="157" t="s">
         <v>813</v>
       </c>
-      <c r="E287" s="156" t="s">
+      <c r="E287" s="157" t="s">
         <v>814</v>
       </c>
       <c r="F287" s="143" t="s">
@@ -13263,29 +13241,29 @@
       </c>
     </row>
     <row r="288" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="155"/>
-      <c r="B288" s="157"/>
-      <c r="C288" s="157"/>
-      <c r="D288" s="157"/>
-      <c r="E288" s="157"/>
+      <c r="A288" s="156"/>
+      <c r="B288" s="158"/>
+      <c r="C288" s="158"/>
+      <c r="D288" s="158"/>
+      <c r="E288" s="158"/>
       <c r="F288" s="74" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A289" s="154">
+      <c r="A289" s="155">
         <v>202106</v>
       </c>
-      <c r="B289" s="156" t="s">
+      <c r="B289" s="157" t="s">
         <v>811</v>
       </c>
-      <c r="C289" s="156" t="s">
+      <c r="C289" s="157" t="s">
         <v>815</v>
       </c>
-      <c r="D289" s="156" t="s">
+      <c r="D289" s="157" t="s">
         <v>816</v>
       </c>
-      <c r="E289" s="156" t="s">
+      <c r="E289" s="157" t="s">
         <v>817</v>
       </c>
       <c r="F289" s="143" t="s">
@@ -13293,29 +13271,29 @@
       </c>
     </row>
     <row r="290" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="155"/>
-      <c r="B290" s="157"/>
-      <c r="C290" s="157"/>
-      <c r="D290" s="157"/>
-      <c r="E290" s="157"/>
+      <c r="A290" s="156"/>
+      <c r="B290" s="158"/>
+      <c r="C290" s="158"/>
+      <c r="D290" s="158"/>
+      <c r="E290" s="158"/>
       <c r="F290" s="144" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A291" s="154">
+      <c r="A291" s="155">
         <v>202106</v>
       </c>
-      <c r="B291" s="156" t="s">
+      <c r="B291" s="157" t="s">
         <v>812</v>
       </c>
-      <c r="C291" s="156" t="s">
+      <c r="C291" s="157" t="s">
         <v>542</v>
       </c>
-      <c r="D291" s="156" t="s">
+      <c r="D291" s="157" t="s">
         <v>813</v>
       </c>
-      <c r="E291" s="156" t="s">
+      <c r="E291" s="157" t="s">
         <v>814</v>
       </c>
       <c r="F291" s="143" t="s">
@@ -13323,17 +13301,127 @@
       </c>
     </row>
     <row r="292" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="155"/>
-      <c r="B292" s="157"/>
-      <c r="C292" s="157"/>
-      <c r="D292" s="157"/>
-      <c r="E292" s="157"/>
+      <c r="A292" s="156"/>
+      <c r="B292" s="158"/>
+      <c r="C292" s="158"/>
+      <c r="D292" s="158"/>
+      <c r="E292" s="158"/>
       <c r="F292" s="74" t="s">
         <v>808</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="A245:A246"/>
+    <mergeCell ref="B245:B246"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="D245:D246"/>
+    <mergeCell ref="E245:E246"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="C247:C248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="E247:E248"/>
+    <mergeCell ref="A249:A250"/>
+    <mergeCell ref="B249:B250"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="D249:D250"/>
+    <mergeCell ref="E249:E250"/>
+    <mergeCell ref="A251:A252"/>
+    <mergeCell ref="B251:B252"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="E251:E252"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="E253:E254"/>
+    <mergeCell ref="A255:A256"/>
+    <mergeCell ref="B255:B256"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="D255:D256"/>
+    <mergeCell ref="E255:E256"/>
+    <mergeCell ref="A257:A258"/>
+    <mergeCell ref="B257:B258"/>
+    <mergeCell ref="C257:C258"/>
+    <mergeCell ref="D257:D258"/>
+    <mergeCell ref="E257:E258"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="C259:C260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="E259:E260"/>
+    <mergeCell ref="A261:A262"/>
+    <mergeCell ref="B261:B262"/>
+    <mergeCell ref="C261:C262"/>
+    <mergeCell ref="D261:D262"/>
+    <mergeCell ref="E261:E262"/>
+    <mergeCell ref="A263:A264"/>
+    <mergeCell ref="B263:B264"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="D263:D264"/>
+    <mergeCell ref="E263:E264"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="C265:C266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="E265:E266"/>
+    <mergeCell ref="A267:A268"/>
+    <mergeCell ref="B267:B268"/>
+    <mergeCell ref="C267:C268"/>
+    <mergeCell ref="D267:D268"/>
+    <mergeCell ref="E267:E268"/>
+    <mergeCell ref="A269:A270"/>
+    <mergeCell ref="B269:B270"/>
+    <mergeCell ref="C269:C270"/>
+    <mergeCell ref="D269:D270"/>
+    <mergeCell ref="E269:E270"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="E271:E272"/>
+    <mergeCell ref="A273:A274"/>
+    <mergeCell ref="B273:B274"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="D273:D274"/>
+    <mergeCell ref="E273:E274"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="D275:D276"/>
+    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="E277:E278"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="B279:B280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="D279:D280"/>
+    <mergeCell ref="E279:E280"/>
+    <mergeCell ref="A281:A282"/>
+    <mergeCell ref="B281:B282"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="D281:D282"/>
+    <mergeCell ref="E281:E282"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="E283:E284"/>
+    <mergeCell ref="A285:A286"/>
+    <mergeCell ref="B285:B286"/>
+    <mergeCell ref="C285:C286"/>
+    <mergeCell ref="D285:D286"/>
+    <mergeCell ref="E285:E286"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="B287:B288"/>
+    <mergeCell ref="C287:C288"/>
+    <mergeCell ref="D287:D288"/>
+    <mergeCell ref="E287:E288"/>
     <mergeCell ref="A289:A290"/>
     <mergeCell ref="B289:B290"/>
     <mergeCell ref="C289:C290"/>
@@ -13344,116 +13432,6 @@
     <mergeCell ref="C291:C292"/>
     <mergeCell ref="D291:D292"/>
     <mergeCell ref="E291:E292"/>
-    <mergeCell ref="A285:A286"/>
-    <mergeCell ref="B285:B286"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="D285:D286"/>
-    <mergeCell ref="E285:E286"/>
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="B287:B288"/>
-    <mergeCell ref="C287:C288"/>
-    <mergeCell ref="D287:D288"/>
-    <mergeCell ref="E287:E288"/>
-    <mergeCell ref="A281:A282"/>
-    <mergeCell ref="B281:B282"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="D281:D282"/>
-    <mergeCell ref="E281:E282"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="E283:E284"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="E277:E278"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="B279:B280"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="D279:D280"/>
-    <mergeCell ref="E279:E280"/>
-    <mergeCell ref="A273:A274"/>
-    <mergeCell ref="B273:B274"/>
-    <mergeCell ref="C273:C274"/>
-    <mergeCell ref="D273:D274"/>
-    <mergeCell ref="E273:E274"/>
-    <mergeCell ref="A275:A276"/>
-    <mergeCell ref="B275:B276"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="D275:D276"/>
-    <mergeCell ref="E275:E276"/>
-    <mergeCell ref="A269:A270"/>
-    <mergeCell ref="B269:B270"/>
-    <mergeCell ref="C269:C270"/>
-    <mergeCell ref="D269:D270"/>
-    <mergeCell ref="E269:E270"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="C271:C272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="E271:E272"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="B265:B266"/>
-    <mergeCell ref="C265:C266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="E265:E266"/>
-    <mergeCell ref="A267:A268"/>
-    <mergeCell ref="B267:B268"/>
-    <mergeCell ref="C267:C268"/>
-    <mergeCell ref="D267:D268"/>
-    <mergeCell ref="E267:E268"/>
-    <mergeCell ref="A261:A262"/>
-    <mergeCell ref="B261:B262"/>
-    <mergeCell ref="C261:C262"/>
-    <mergeCell ref="D261:D262"/>
-    <mergeCell ref="E261:E262"/>
-    <mergeCell ref="A263:A264"/>
-    <mergeCell ref="B263:B264"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="D263:D264"/>
-    <mergeCell ref="E263:E264"/>
-    <mergeCell ref="A257:A258"/>
-    <mergeCell ref="B257:B258"/>
-    <mergeCell ref="C257:C258"/>
-    <mergeCell ref="D257:D258"/>
-    <mergeCell ref="E257:E258"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="C259:C260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="E259:E260"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="E253:E254"/>
-    <mergeCell ref="A255:A256"/>
-    <mergeCell ref="B255:B256"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="D255:D256"/>
-    <mergeCell ref="E255:E256"/>
-    <mergeCell ref="A249:A250"/>
-    <mergeCell ref="B249:B250"/>
-    <mergeCell ref="C249:C250"/>
-    <mergeCell ref="D249:D250"/>
-    <mergeCell ref="E249:E250"/>
-    <mergeCell ref="A251:A252"/>
-    <mergeCell ref="B251:B252"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="E251:E252"/>
-    <mergeCell ref="A245:A246"/>
-    <mergeCell ref="B245:B246"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="D245:D246"/>
-    <mergeCell ref="E245:E246"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="C247:C248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="E247:E248"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
